--- a/biology/Médecine/Nerf_mylo-hyoïdien/Nerf_mylo-hyoïdien.xlsx
+++ b/biology/Médecine/Nerf_mylo-hyoïdien/Nerf_mylo-hyoïdien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_mylo-hyo%C3%AFdien</t>
+          <t>Nerf_mylo-hyoïdien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf mylo-hyoïdien est une branche motrice et sensitive du nerf alvéolaire inférieur.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_mylo-hyo%C3%AFdien</t>
+          <t>Nerf_mylo-hyoïdien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf mylo-hyoïdien est une branche du nerf alvéolaire inférieur, branche du nerf mandibulaire, lui-même branche du nerf trijumeau[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf mylo-hyoïdien est une branche du nerf alvéolaire inférieur, branche du nerf mandibulaire, lui-même branche du nerf trijumeau,.
 Il nait juste avant d'entrer dans le foramen mandibulaire. Il descend dans un sillon de la face interne de la branche montante de la mandibule. Lorsqu'il atteint la surface inférieure du muscle mylo-hyoïdien, il lui donne des branches ainsi qu'au ventre antérieur du muscle digastrique.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_mylo-hyo%C3%AFdien</t>
+          <t>Nerf_mylo-hyoïdien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf mylohyoïdien innerve le muscle mylo-hyoïdien et le ventre antérieur du muscle digastrique.
-Il fournit également l'innervation sensorielle des molaires mandibulaires[3] et à la zone cutanée submentale[4].
+Il fournit également l'innervation sensorielle des molaires mandibulaires et à la zone cutanée submentale.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nerf_mylo-hyo%C3%AFdien</t>
+          <t>Nerf_mylo-hyoïdien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf mylo-hyoïdien doit être bloqué pour une anesthésie locale des dents mandibulaires car dans certains cas le blocage du nerf alvéolaire inférieur peut ne pas suffire dans certaines variations anatomiques[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf mylo-hyoïdien doit être bloqué pour une anesthésie locale des dents mandibulaires car dans certains cas le blocage du nerf alvéolaire inférieur peut ne pas suffire dans certaines variations anatomiques.
 </t>
         </is>
       </c>
